--- a/Equivalencias/NombresUnis.xlsx
+++ b/Equivalencias/NombresUnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa-m\ideas\Equivalencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B68F1CA-B896-443B-A8B4-55F0D780D624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B77337-2722-4049-94D1-BD96B6966B44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,17 +140,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,27 +161,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -190,10 +175,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +484,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,7 +496,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -590,10 +575,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
